--- a/Documents/Data/Poetry & Drama/category_Poetry&Drama.xlsx
+++ b/Documents/Data/Poetry & Drama/category_Poetry&Drama.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17830"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
   <si>
     <t>Author's Name</t>
   </si>
@@ -121,14 +121,63 @@
   </si>
   <si>
     <t>Phizzwhizzing new cover look and branding for the World's NUMBER ONE Storyteller WIGGLE YOUR EARS! This new edition includes MAKE-YOUR-OWN GIANT EARS for dress-up! On a dark, silvery moonlit night, Sophie is snatched from her bed by a giant. Luckily it is the Big Friendly Giant, the BFG, who only eats snozzcumbers and glugs frobscottle. But there are other giants in Giant Country. Fifty foot brutes who gallop far and wide every night to find human beans to eat.</t>
+  </si>
+  <si>
+    <t>ISBN13</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Harry Potter and the Cursed Child - Parts I &amp; II : The Official Script Book of the Original West End Production</t>
+  </si>
+  <si>
+    <t>Milk and Honey</t>
+  </si>
+  <si>
+    <t>Harry Potter and the Philosopher's Stone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Book of Longing
+</t>
+  </si>
+  <si>
+    <t>The Crucible : A Play in Four Acts</t>
+  </si>
+  <si>
+    <t>Where the Wild Things Are</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Universe of Us
+</t>
+  </si>
+  <si>
+    <t>The Hag-Seed : The Tempest Retold</t>
+  </si>
+  <si>
+    <t>Harry Potter and the Half-Blood Prince</t>
+  </si>
+  <si>
+    <t>The BFG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -138,8 +187,9 @@
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -162,12 +212,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -177,6 +238,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -225,7 +289,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -258,9 +322,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -293,6 +374,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -469,239 +567,342 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.125" customWidth="1"/>
-    <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="3" width="9.375" customWidth="1"/>
-    <col min="4" max="4" width="23.125" customWidth="1"/>
-    <col min="5" max="5" width="14.25" customWidth="1"/>
-    <col min="6" max="6" width="28.25" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="42.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="28.28515625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" s="8" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1">
+      <c r="G2" s="5">
+        <v>9780751565355</v>
+      </c>
+      <c r="H2" s="3">
         <v>42582</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1">
+      <c r="G3" s="5">
+        <v>9781449474256</v>
+      </c>
+      <c r="H3" s="3">
         <v>42559</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="1">
+      <c r="G4" s="5">
+        <v>9781408855652</v>
+      </c>
+      <c r="H4" s="3">
         <v>41928</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="1">
+      <c r="G5" s="5">
+        <v>9780141027562</v>
+      </c>
+      <c r="H5" s="3">
         <v>39296</v>
       </c>
-      <c r="F5" t="s">
+      <c r="I5" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="1">
+      <c r="G6" s="5">
+        <v>9780141182551</v>
+      </c>
+      <c r="H6" s="3">
         <v>36580</v>
       </c>
-      <c r="F6" t="s">
+      <c r="I6" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="1">
+      <c r="G7" s="5">
+        <v>9780099408390</v>
+      </c>
+      <c r="H7" s="3">
         <v>37022</v>
       </c>
-      <c r="F7" t="s">
+      <c r="I7" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="1">
+      <c r="G8" s="5">
+        <v>9781449480127</v>
+      </c>
+      <c r="H8" s="3">
         <v>42677</v>
       </c>
-      <c r="F8" t="s">
+      <c r="I8" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="1">
+      <c r="G9" s="5">
+        <v>9781781090237</v>
+      </c>
+      <c r="H9" s="3">
         <v>42668</v>
       </c>
-      <c r="F9" t="s">
+      <c r="I9" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="1">
+      <c r="G10" s="5">
+        <v>9781408855706</v>
+      </c>
+      <c r="H10" s="3">
         <v>41928</v>
       </c>
-      <c r="F10" t="s">
+      <c r="I10" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="1">
+      <c r="G11" s="5">
+        <v>9780141365428</v>
+      </c>
+      <c r="H11" s="3">
         <v>42411</v>
       </c>
-      <c r="F11" t="s">
+      <c r="I11" s="1" t="s">
         <v>34</v>
       </c>
     </row>
